--- a/bin/Excel-Sprint-Project-Tracker.xlsx
+++ b/bin/Excel-Sprint-Project-Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDE55EC-A816-438B-9DF4-F80E4C72ED25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDC825E-1F0F-46BB-B312-1A480F98F59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">'Excel Sprint Project Tracker'!$C1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Excel Sprint Project Tracker'!$C$3:$AN$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Excel Sprint Project Tracker'!$C$3:$AN$25</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Excel Sprint Project Tracker'!$6:$8</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Project Summary</t>
   </si>
@@ -1346,47 +1346,20 @@
     <xf numFmtId="0" fontId="57" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="27" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="27" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="28" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="41" fontId="59" fillId="28" borderId="22" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="41" fontId="59" fillId="28" borderId="23" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="30" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="30" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="30" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="29" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="29" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="29" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="41" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1396,9 +1369,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="41" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="166" fontId="41" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1408,14 +1378,44 @@
     <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="30" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="30" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="30" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="29" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="29" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="29" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="27" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="59" fillId="28" borderId="22" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="59" fillId="28" borderId="23" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1468,7 +1468,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -1480,27 +1480,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1606,41 +1585,6 @@
       <font>
         <color theme="0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
@@ -3406,10 +3350,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BY44"/>
+  <dimension ref="A1:BY43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3477,15 +3421,15 @@
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
       <c r="J3" s="9"/>
       <c r="K3" s="56"/>
       <c r="L3" s="57" t="s">
@@ -3525,13 +3469,13 @@
     </row>
     <row r="4" spans="2:41" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
       <c r="J4" s="11"/>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
@@ -3575,54 +3519,54 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="86">
+      <c r="K5" s="74">
         <f>CHOOSE(WEEKDAY(D6+(H6-1)*7),5,4,3,2,1,0,6)+D6+(H6-1)*7</f>
         <v>44484</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86">
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74">
         <f>K5+7</f>
         <v>44491</v>
       </c>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86">
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74">
         <f>P5+7</f>
         <v>44498</v>
       </c>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86">
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74">
         <f>U5+7</f>
         <v>44505</v>
       </c>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86">
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74">
         <f>Z5+7</f>
         <v>44512</v>
       </c>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="86"/>
-      <c r="AH5" s="86"/>
-      <c r="AI5" s="86"/>
-      <c r="AJ5" s="86">
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74">
         <f>AE5+7</f>
         <v>44519</v>
       </c>
-      <c r="AK5" s="86"/>
-      <c r="AL5" s="86"/>
-      <c r="AM5" s="86"/>
-      <c r="AN5" s="86"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
       <c r="AO5" s="5"/>
     </row>
     <row r="6" spans="2:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3630,49 +3574,49 @@
       <c r="C6" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="76">
         <v>44479</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="88" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="47">
         <v>1</v>
       </c>
       <c r="I6" s="59"/>
       <c r="J6" s="34"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86"/>
-      <c r="AL6" s="86"/>
-      <c r="AM6" s="86"/>
-      <c r="AN6" s="86"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="74"/>
+      <c r="AJ6" s="74"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="74"/>
+      <c r="AN6" s="74"/>
       <c r="AO6" s="5"/>
     </row>
     <row r="7" spans="2:41" ht="6.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3685,36 +3629,36 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="34"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="86"/>
-      <c r="AI7" s="86"/>
-      <c r="AJ7" s="86"/>
-      <c r="AK7" s="86"/>
-      <c r="AL7" s="86"/>
-      <c r="AM7" s="86"/>
-      <c r="AN7" s="86"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="74"/>
       <c r="AO7" s="5"/>
     </row>
     <row r="8" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3865,13 +3809,13 @@
     </row>
     <row r="9" spans="2:41" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
       <c r="J9" s="26"/>
       <c r="K9" s="29" t="str">
         <f>CHOOSE(WEEKDAY(K8,1),"S","M","T","W","T","F","S")</f>
@@ -4005,8 +3949,8 @@
         <v>44481</v>
       </c>
       <c r="F10" s="41">
-        <f>IF(MAX(F11:F26)&gt;0,MAX(F11:F26),"")</f>
-        <v>44492</v>
+        <f>IF(MAX(F11:F25)&gt;0,MAX(F11:F25),"")</f>
+        <v>44491</v>
       </c>
       <c r="G10" s="52" t="str">
         <f>IF(OR(E10="",F10=""),"",NETWORKDAYS(E10,F10)&amp; " day(s)")</f>
@@ -4280,12 +4224,12 @@
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="35">
-        <f>IF(MIN(E16:E18)&gt;0,MIN(E16:E18),"")</f>
+        <f>IF(MIN(E16:E17)&gt;0,MIN(E16:E17),"")</f>
         <v>44488</v>
       </c>
       <c r="F15" s="35">
-        <f>IF(MAX(F16:F18)&gt;0,MAX(F16:F18),"")</f>
-        <v>44492</v>
+        <f>IF(MAX(F16:F17)&gt;0,MAX(F16:F17),"")</f>
+        <v>44491</v>
       </c>
       <c r="G15" s="49" t="str">
         <f>IF(OR(E15="",F15=""),"",NETWORKDAYS(E15,F15)&amp; " day(s)")</f>
@@ -4293,8 +4237,8 @@
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="53">
-        <f>AVERAGE(I16:I18)</f>
-        <v>0.66666666666666663</v>
+        <f>AVERAGE(I16:I17)</f>
+        <v>1</v>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="36"/>
@@ -4443,30 +4387,15 @@
       <c r="AN17" s="15"/>
       <c r="AO17" s="5"/>
     </row>
-    <row r="18" spans="2:77" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="12">
-        <v>44491</v>
-      </c>
-      <c r="F18" s="12">
-        <v>44492</v>
-      </c>
-      <c r="G18" s="50" t="str">
-        <f>IF(OR(E18=0,F18=0),"",NETWORKDAYS(E18,F18)&amp; " day(s)")</f>
-        <v>1 day(s)</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="54">
-        <v>0</v>
-      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="28"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -4628,13 +4557,28 @@
     </row>
     <row r="22" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="54"/>
+      <c r="C22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="12">
+        <v>43344</v>
+      </c>
+      <c r="F22" s="12">
+        <v>43348</v>
+      </c>
+      <c r="G22" s="50" t="str">
+        <f>IF(OR(E22=0,F22=0),"",NETWORKDAYS(E22,F22)&amp; " day(s)")</f>
+        <v>3 day(s)</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="54">
+        <v>1</v>
+      </c>
       <c r="J22" s="28"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
@@ -4671,26 +4615,26 @@
     <row r="23" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" s="12">
-        <v>43344</v>
+        <v>43358</v>
       </c>
       <c r="F23" s="12">
-        <v>43348</v>
+        <v>43366</v>
       </c>
       <c r="G23" s="50" t="str">
         <f>IF(OR(E23=0,F23=0),"",NETWORKDAYS(E23,F23)&amp; " day(s)")</f>
-        <v>3 day(s)</v>
+        <v>5 day(s)</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="54">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="15"/>
@@ -4728,26 +4672,26 @@
     <row r="24" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="12">
-        <v>43358</v>
+        <v>43372</v>
       </c>
       <c r="F24" s="12">
-        <v>43366</v>
+        <v>43380</v>
       </c>
       <c r="G24" s="50" t="str">
         <f>IF(OR(E24=0,F24=0),"",NETWORKDAYS(E24,F24)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" s="54">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="15"/>
@@ -4784,28 +4728,13 @@
     </row>
     <row r="25" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="12">
-        <v>43372</v>
-      </c>
-      <c r="F25" s="12">
-        <v>43380</v>
-      </c>
-      <c r="G25" s="50" t="str">
-        <f>IF(OR(E25=0,F25=0),"",NETWORKDAYS(E25,F25)&amp; " day(s)")</f>
-        <v>5 day(s)</v>
-      </c>
-      <c r="H25" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="54">
-        <v>0.25</v>
-      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="28"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -4839,243 +4768,236 @@
       <c r="AN25" s="15"/>
       <c r="AO25" s="5"/>
     </row>
-    <row r="26" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="15"/>
-      <c r="AM26" s="15"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="5"/>
+    <row r="26" spans="2:77" s="62" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+      <c r="BY26" s="63"/>
     </row>
-    <row r="27" spans="2:77" s="62" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="66"/>
-      <c r="BY27" s="63"/>
+    <row r="27" spans="2:77" s="68" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="89"/>
+      <c r="K27" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="86"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="86"/>
+      <c r="AD27" s="86"/>
+      <c r="AE27" s="86"/>
+      <c r="AF27" s="86"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="86"/>
+      <c r="AJ27" s="86"/>
+      <c r="AK27" s="86"/>
+      <c r="AL27" s="86"/>
+      <c r="AM27" s="86"/>
+      <c r="AN27" s="86"/>
+      <c r="AO27" s="87"/>
+      <c r="AX27" s="69"/>
+      <c r="AY27" s="69"/>
+      <c r="AZ27" s="69"/>
+      <c r="BA27" s="69"/>
+      <c r="BB27" s="69"/>
+      <c r="BC27" s="69"/>
+      <c r="BD27" s="69"/>
+      <c r="BE27" s="69"/>
     </row>
-    <row r="28" spans="2:77" s="68" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:77" s="62" customFormat="1" ht="89.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="70" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C28" s="71"/>
-      <c r="D28" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="90"/>
-      <c r="K28" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-      <c r="AB28" s="82"/>
-      <c r="AC28" s="82"/>
-      <c r="AD28" s="82"/>
-      <c r="AE28" s="82"/>
-      <c r="AF28" s="82"/>
-      <c r="AG28" s="82"/>
-      <c r="AH28" s="82"/>
-      <c r="AI28" s="82"/>
-      <c r="AJ28" s="82"/>
-      <c r="AK28" s="82"/>
-      <c r="AL28" s="82"/>
-      <c r="AM28" s="82"/>
-      <c r="AN28" s="82"/>
-      <c r="AO28" s="83"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="69"/>
-      <c r="AZ28" s="69"/>
-      <c r="BA28" s="69"/>
-      <c r="BB28" s="69"/>
-      <c r="BC28" s="69"/>
-      <c r="BD28" s="69"/>
-      <c r="BE28" s="69"/>
+      <c r="D28" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="83"/>
+      <c r="AC28" s="83"/>
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="83"/>
+      <c r="AF28" s="83"/>
+      <c r="AG28" s="83"/>
+      <c r="AH28" s="83"/>
+      <c r="AI28" s="83"/>
+      <c r="AJ28" s="83"/>
+      <c r="AK28" s="83"/>
+      <c r="AL28" s="83"/>
+      <c r="AM28" s="83"/>
+      <c r="AN28" s="83"/>
+      <c r="AO28" s="84"/>
+      <c r="BY28" s="63"/>
     </row>
-    <row r="29" spans="2:77" s="62" customFormat="1" ht="89.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="77"/>
+    <row r="29" spans="2:77" s="62" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="66"/>
-      <c r="K29" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="79"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="79"/>
-      <c r="AL29" s="79"/>
-      <c r="AM29" s="79"/>
-      <c r="AN29" s="79"/>
-      <c r="AO29" s="80"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="83"/>
+      <c r="AF29" s="83"/>
+      <c r="AG29" s="83"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="83"/>
+      <c r="AJ29" s="83"/>
+      <c r="AK29" s="83"/>
+      <c r="AL29" s="83"/>
+      <c r="AM29" s="83"/>
+      <c r="AN29" s="83"/>
+      <c r="AO29" s="84"/>
       <c r="BY29" s="63"/>
     </row>
-    <row r="30" spans="2:77" s="62" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="75"/>
+    <row r="30" spans="2:77" s="62" customFormat="1" ht="225.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="92"/>
       <c r="J30" s="66"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="79"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="79"/>
-      <c r="AM30" s="79"/>
-      <c r="AN30" s="79"/>
-      <c r="AO30" s="80"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="66"/>
       <c r="BY30" s="63"/>
     </row>
-    <row r="31" spans="2:77" s="62" customFormat="1" ht="225.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="75"/>
+    <row r="31" spans="2:77" s="62" customFormat="1" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="81"/>
       <c r="J31" s="66"/>
       <c r="K31" s="66"/>
       <c r="L31" s="66"/>
@@ -5099,18 +5021,18 @@
       <c r="BY31" s="63"/>
     </row>
     <row r="32" spans="2:77" s="62" customFormat="1" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="77"/>
+      <c r="B32" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73"/>
       <c r="J32" s="66"/>
       <c r="K32" s="66"/>
       <c r="L32" s="66"/>
@@ -5133,19 +5055,16 @@
       <c r="AC32" s="66"/>
       <c r="BY32" s="63"/>
     </row>
-    <row r="33" spans="1:77" s="62" customFormat="1" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="92"/>
+    <row r="33" spans="1:77" s="62" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
       <c r="J33" s="66"/>
       <c r="K33" s="66"/>
       <c r="L33" s="66"/>
@@ -5157,16 +5076,7 @@
       <c r="R33" s="66"/>
       <c r="S33" s="66"/>
       <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="BY33" s="63"/>
+      <c r="BP33" s="63"/>
     </row>
     <row r="34" spans="1:77" s="62" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A34" s="66"/>
@@ -5260,11 +5170,10 @@
       <c r="T37" s="66"/>
       <c r="BP37" s="63"/>
     </row>
-    <row r="38" spans="1:77" s="62" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
+    <row r="38" spans="1:77" s="62" customFormat="1" ht="17" x14ac:dyDescent="0.35">
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="66"/>
       <c r="F38" s="66"/>
       <c r="G38" s="66"/>
@@ -5281,7 +5190,16 @@
       <c r="R38" s="66"/>
       <c r="S38" s="66"/>
       <c r="T38" s="66"/>
-      <c r="BP38" s="63"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
+      <c r="BY38" s="63"/>
     </row>
     <row r="39" spans="1:77" s="62" customFormat="1" ht="17" x14ac:dyDescent="0.35">
       <c r="B39" s="64"/>
@@ -5407,7 +5325,7 @@
       <c r="AC42" s="66"/>
       <c r="BY42" s="63"/>
     </row>
-    <row r="43" spans="1:77" s="62" customFormat="1" ht="17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:77" s="62" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="64"/>
       <c r="C43" s="65"/>
       <c r="D43" s="65"/>
@@ -5438,47 +5356,13 @@
       <c r="AC43" s="66"/>
       <c r="BY43" s="63"/>
     </row>
-    <row r="44" spans="1:77" s="62" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="66"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="66"/>
-      <c r="X44" s="66"/>
-      <c r="Y44" s="66"/>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="66"/>
-      <c r="AB44" s="66"/>
-      <c r="AC44" s="66"/>
-      <c r="BY44" s="63"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="25">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="AJ5:AN7"/>
-    <mergeCell ref="P5:T7"/>
-    <mergeCell ref="U5:Y7"/>
-    <mergeCell ref="Z5:AD7"/>
-    <mergeCell ref="AE5:AI7"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:I30"/>
     <mergeCell ref="C3:I4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="K5:O7"/>
@@ -5486,25 +5370,28 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:I32"/>
-    <mergeCell ref="K29:AO29"/>
-    <mergeCell ref="K30:AO30"/>
-    <mergeCell ref="K28:AO28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="AJ5:AN7"/>
+    <mergeCell ref="P5:T7"/>
+    <mergeCell ref="U5:Y7"/>
+    <mergeCell ref="Z5:AD7"/>
+    <mergeCell ref="AE5:AI7"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:I31"/>
+    <mergeCell ref="K28:AO28"/>
+    <mergeCell ref="K29:AO29"/>
+    <mergeCell ref="K27:AO27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K8:AN8">
-    <cfRule type="expression" dxfId="19" priority="162">
+    <cfRule type="expression" dxfId="16" priority="162">
       <formula>$K$8=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I26 I11:I12 I14:I15">
+  <conditionalFormatting sqref="I18:I25 I11:I12 I14:I15">
     <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5518,22 +5405,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12 H14:H15 H19:H26">
-    <cfRule type="cellIs" dxfId="18" priority="39" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H12 H14:H15 H18:H25">
+    <cfRule type="cellIs" dxfId="15" priority="39" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="40" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="41" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:AN26">
-    <cfRule type="expression" dxfId="15" priority="163">
+  <conditionalFormatting sqref="K12:AN25">
+    <cfRule type="expression" dxfId="12" priority="163">
       <formula>AND($I12&gt;5%, $E12&lt;=K$8,ROUNDDOWN(NETWORKDAYS($E12,$F12)*$I12,0)+$E12+1&gt;=K$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="164">
+    <cfRule type="expression" dxfId="11" priority="164">
       <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$8,$F12&gt;=K$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5552,13 +5439,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="13" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="26" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5577,13 +5464,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="10" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5602,38 +5489,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="7" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"Red"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="9" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FACC1E94-9220-4E70-9F96-3627822B5AA2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"Green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5646,10 +5508,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D14 D23:D25 D16:D21" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D14 D22:D24 D16:D20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Low, Medium,High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H14 H23:H25 H16:H21" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H14 H22:H24 H16:H20" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Red, Yellow,Green"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5673,7 +5535,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I19:I26 I11:I12 I14:I15</xm:sqref>
+          <xm:sqref>I18:I25 I11:I12 I14:I15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C62A6621-A3CE-40E1-A5FF-9C7C62959795}">
@@ -5720,21 +5582,6 @@
           </x14:cfRule>
           <xm:sqref>I13</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FACC1E94-9220-4E70-9F96-3627822B5AA2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I18</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
